--- a/User_stories.xlsx
+++ b/User_stories.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juver\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2C7B008-3CBC-489A-9BDB-C72D3880D041}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5A99B94-06D6-4C91-BD97-389D66C33E49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{188117B1-C1AE-49E5-BCA4-07739543BEDF}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="35">
   <si>
     <t>Galaxy</t>
   </si>
@@ -44,9 +44,6 @@
     <t>Galaxy_id</t>
   </si>
   <si>
-    <t>galaxy_type</t>
-  </si>
-  <si>
     <t>Primary_key</t>
   </si>
   <si>
@@ -65,12 +62,6 @@
     <t>TEXT</t>
   </si>
   <si>
-    <t>dimention</t>
-  </si>
-  <si>
-    <t>NUMERIC</t>
-  </si>
-  <si>
     <t>SERIAL(auto increment)</t>
   </si>
   <si>
@@ -80,12 +71,6 @@
     <t>BOOLEAN</t>
   </si>
   <si>
-    <t>INT,UNIQUE</t>
-  </si>
-  <si>
-    <t>BOOLEAN,NOT NULL</t>
-  </si>
-  <si>
     <t>TEXT,NOT NULL</t>
   </si>
   <si>
@@ -117,6 +102,45 @@
   </si>
   <si>
     <t>NUMERIC,UNIQUE</t>
+  </si>
+  <si>
+    <t>Planet</t>
+  </si>
+  <si>
+    <t>planet_id</t>
+  </si>
+  <si>
+    <t>height_of_planet</t>
+  </si>
+  <si>
+    <t>width_of_planet</t>
+  </si>
+  <si>
+    <t>planet_exists</t>
+  </si>
+  <si>
+    <t>Moon</t>
+  </si>
+  <si>
+    <t>moon_id</t>
+  </si>
+  <si>
+    <t>moon_exists</t>
+  </si>
+  <si>
+    <t>width_of_moon</t>
+  </si>
+  <si>
+    <t>galaxy_dimention</t>
+  </si>
+  <si>
+    <t>Comets</t>
+  </si>
+  <si>
+    <t>comet_id</t>
+  </si>
+  <si>
+    <t>comet_fall</t>
   </si>
 </sst>
 </file>
@@ -148,9 +172,8 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Consolas"/>
-      <family val="3"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -234,7 +257,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -244,6 +266,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -558,10 +581,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16934C10-65AD-4A77-8718-5BEC2BFA0CCC}">
-  <dimension ref="A2:I11"/>
+  <dimension ref="A2:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -571,51 +594,52 @@
     <col min="3" max="4" width="21.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+    </row>
+    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B4" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B4" s="4" t="s">
-        <v>3</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -627,74 +651,74 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B8" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B9" s="9" t="s">
+      <c r="I9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B10" s="7" t="s">
-        <v>3</v>
+      <c r="B10" s="6" t="s">
+        <v>2</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -704,35 +728,269 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="F11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B14" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B15" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="5" t="s">
+      <c r="F15" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B16" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B20" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B21" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>7</v>
+      <c r="E21" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B22" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B26" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B27" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B28" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="5">
+    <mergeCell ref="B14:I14"/>
+    <mergeCell ref="B20:I20"/>
+    <mergeCell ref="B26:I26"/>
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="B8:I8"/>
   </mergeCells>
